--- a/biology/Botanique/Astragalus_sempervirens/Astragalus_sempervirens.xlsx
+++ b/biology/Botanique/Astragalus_sempervirens/Astragalus_sempervirens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astragale toujours vert
 Astragalus sempervirens, l'Astragale toujours vert ou Astragale aristé, est une espèce de plante herbacée vivace de la famille des Fabaceae (légumineuses) du genre Astragalus.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante haute de 10 à 40 cm très épineuse par suite de la chute des folioles du rachis des feuilles composées-pennées. Fleurs blanchâtres à lilas pâle longues de 10 à 15 mm à grand étendard dressé.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Montagnes du sud de l'Europe. En France : Alpes et Pyrénées. 
 </t>
@@ -574,7 +590,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Astragalus sempervirens subsp. alpinus Pignatti, 1973
 Astragalus sempervirens subsp. catalaunicus (Braun-Blanq.) Laínz, 1969
